--- a/3_Circuits/Embedded_Qs/3_1_Embedded_Qs.xlsx
+++ b/3_Circuits/Embedded_Qs/3_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="6"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="16" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Correct</t>
   </si>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,8 +1373,8 @@
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.1</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>70</v>
@@ -1384,7 +1384,9 @@
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
@@ -1393,7 +1395,9 @@
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1402,7 +1406,9 @@
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1416,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/3_Circuits/Embedded_Qs/3_1_Embedded_Qs.xlsx
+++ b/3_Circuits/Embedded_Qs/3_1_Embedded_Qs.xlsx
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
